--- a/UsersAndOder.xlsx
+++ b/UsersAndOder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>订单编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>20201231083853</t>
+  </si>
+  <si>
+    <t>20210101081057</t>
   </si>
 </sst>
 </file>
@@ -391,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
@@ -443,6 +446,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
